--- a/exampleProblems/ch9_013/ch9_013.xlsx
+++ b/exampleProblems/ch9_013/ch9_013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_013/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D802EE-6499-A84B-B8A0-30270918411A}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2FD43BE-1510-4C4E-8436-FD08538209B7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -125,13 +125,19 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>O=C(O)c1ccncc1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,25 +560,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -584,16 +596,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -620,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -649,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -678,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -689,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -700,7 +712,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -711,7 +723,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -722,7 +734,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -733,7 +745,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -744,7 +756,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -755,7 +767,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -780,9 +792,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -815,7 +827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -847,7 +859,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -879,7 +891,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -893,7 +905,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -907,7 +919,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -920,7 +932,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -934,7 +946,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -948,7 +960,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -962,7 +974,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -976,7 +988,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -990,10 +1002,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1010,9 +1022,9 @@
       <selection activeCell="L3" sqref="L3:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1056,7 +1068,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1089,7 +1101,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1105,7 +1117,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1121,7 +1133,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1137,7 +1149,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1153,7 +1165,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1168,7 +1180,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1183,7 +1195,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1198,7 +1210,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1213,7 +1225,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1228,7 +1240,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1243,7 +1255,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1258,7 +1270,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1273,7 +1285,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1288,7 +1300,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1303,7 +1315,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1318,7 +1330,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1342,7 +1354,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1353,7 +1365,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1364,7 +1376,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1375,7 +1387,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1386,7 +1398,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1397,7 +1409,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1408,7 +1420,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1419,7 +1431,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1430,7 +1442,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1441,7 +1453,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1452,7 +1464,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1463,7 +1475,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1474,7 +1486,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1485,7 +1497,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1496,7 +1508,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1507,7 +1519,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1518,7 +1530,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1543,9 +1555,9 @@
       <selection activeCell="A2" sqref="A2:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1589,7 +1601,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1602,7 +1614,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1615,7 +1627,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1628,7 +1640,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1641,7 +1653,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1654,7 +1666,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1667,7 +1679,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1680,7 +1692,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1693,7 +1705,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1706,7 +1718,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1719,7 +1731,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1732,7 +1744,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1745,7 +1757,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1758,7 +1770,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1771,7 +1783,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1784,7 +1796,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1797,7 +1809,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1810,7 +1822,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1823,7 +1835,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1836,7 +1848,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1849,7 +1861,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1862,7 +1874,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1875,7 +1887,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1888,7 +1900,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1901,7 +1913,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1914,7 +1926,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1927,7 +1939,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1940,7 +1952,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1953,7 +1965,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1966,7 +1978,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1979,7 +1991,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1992,7 +2004,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2005,7 +2017,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2018,7 +2030,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2031,7 +2043,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2044,7 +2056,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2057,7 +2069,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2070,7 +2082,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2083,7 +2095,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2096,7 +2108,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2109,7 +2121,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2122,7 +2134,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2135,7 +2147,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2148,7 +2160,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2173,7 +2185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2187,9 +2199,9 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2216,7 +2228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2241,7 +2253,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2266,7 +2278,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2291,7 +2303,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2316,7 +2328,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2327,7 +2339,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2338,7 +2350,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2349,7 +2361,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2360,7 +2372,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2371,7 +2383,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2382,7 +2394,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2393,7 +2405,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2404,7 +2416,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2415,7 +2427,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2440,9 +2452,9 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2469,7 +2481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2494,7 +2506,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2519,7 +2531,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2530,7 +2542,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2541,7 +2553,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2552,7 +2564,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2563,7 +2575,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2574,7 +2586,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2585,7 +2597,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2596,7 +2608,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2613,9 +2625,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2836,27 +2851,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2881,9 +2884,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_013/ch9_013.xlsx
+++ b/exampleProblems/ch9_013/ch9_013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_013/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2FD43BE-1510-4C4E-8436-FD08538209B7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_1F1F7A3332FEE4BC3FCCACFC873BA81A0D00F7B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C58975E-5FFE-5443-868B-E234B0ECD52C}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="1980" windowWidth="23880" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="HSQC" sheetId="4" r:id="rId3"/>
     <sheet name="COSY" sheetId="5" r:id="rId4"/>
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="C13_1D" sheetId="2" r:id="rId7"/>
-    <sheet name="H1_pureshift" sheetId="3" r:id="rId8"/>
+    <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
+    <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,13 +562,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -576,7 +579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -600,12 +603,12 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -632,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -661,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -690,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -701,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -712,7 +715,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -723,7 +726,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -734,7 +737,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -745,7 +748,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -756,7 +759,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -767,7 +770,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -792,9 +795,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -827,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -859,7 +862,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -891,7 +894,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -905,7 +908,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -919,7 +922,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -932,7 +935,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -946,7 +949,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -960,7 +963,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -974,7 +977,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -988,7 +991,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1002,10 +1005,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1019,12 +1022,12 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L6"/>
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1068,7 +1071,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1101,7 +1104,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1117,7 +1120,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1133,7 +1136,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1149,7 +1152,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1165,7 +1168,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1180,7 +1183,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1195,7 +1198,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1210,7 +1213,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1225,7 +1228,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1240,7 +1243,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1255,7 +1258,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1270,7 +1273,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1285,7 +1288,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1300,7 +1303,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1315,7 +1318,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1330,7 +1333,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1354,7 +1357,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1365,7 +1368,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1376,7 +1379,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1387,7 +1390,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1398,7 +1401,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1409,7 +1412,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1420,7 +1423,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1431,7 +1434,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1442,7 +1445,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1453,7 +1456,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1464,7 +1467,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1475,7 +1478,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1486,7 +1489,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1497,7 +1500,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1508,7 +1511,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1519,7 +1522,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1530,7 +1533,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1555,9 +1558,9 @@
       <selection activeCell="A2" sqref="A2:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1601,7 +1604,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1614,7 +1617,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1627,7 +1630,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1640,7 +1643,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1653,7 +1656,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1666,7 +1669,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1679,7 +1682,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1692,7 +1695,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1705,7 +1708,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1718,7 +1721,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1731,7 +1734,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1744,7 +1747,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1757,7 +1760,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1770,7 +1773,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1783,7 +1786,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1796,7 +1799,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1809,7 +1812,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1822,7 +1825,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1835,7 +1838,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1848,7 +1851,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1861,7 +1864,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1874,7 +1877,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1887,7 +1890,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1900,7 +1903,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1913,7 +1916,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1926,7 +1929,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1939,7 +1942,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1952,7 +1955,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1965,7 +1968,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1978,7 +1981,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1991,7 +1994,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2004,7 +2007,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2017,7 +2020,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2030,7 +2033,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2043,7 +2046,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2056,7 +2059,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2069,7 +2072,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2082,7 +2085,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2095,7 +2098,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2108,7 +2111,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2121,7 +2124,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2134,7 +2137,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2147,7 +2150,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2160,7 +2163,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2180,28 +2183,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917CD1C-20C8-DC4F-90D5-404846A735D2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2228,7 +2219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2253,7 +2244,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2278,7 +2269,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2303,7 +2294,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2328,7 +2319,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2339,7 +2330,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2350,7 +2341,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2361,7 +2352,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2372,7 +2363,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2383,7 +2374,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2394,7 +2385,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2405,7 +2396,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2416,7 +2407,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2427,7 +2418,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2444,17 +2435,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2481,7 +2472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2506,7 +2497,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2531,7 +2522,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2542,7 +2533,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2553,7 +2544,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2564,7 +2555,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2575,7 +2566,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2586,7 +2577,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2597,7 +2588,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2608,7 +2599,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2624,13 +2615,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1857C7F4-92D1-B44E-B013-725376303EB8}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2851,15 +2887,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2884,18 +2932,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>